--- a/documentation/BS Virtualisierungsprojekt.xlsx
+++ b/documentation/BS Virtualisierungsprojekt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>12.2.2024</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>19.2.2024</t>
@@ -138,13 +135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -200,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,13 +220,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -543,13 +543,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="106.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="113.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -575,7 +575,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -587,7 +587,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -599,7 +599,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -613,185 +613,183 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>11</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>12</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>13</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5">
         <v>15</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B15" s="5">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5">
         <v>17</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B17" s="5">
         <v>18</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B18" s="5">
         <v>19</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5">
         <v>20</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B20" s="5">
         <v>21</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
